--- a/projet 1/Kraan_Ruben_3_grille_auto_evaluation_092024.xlsx
+++ b/projet 1/Kraan_Ruben_3_grille_auto_evaluation_092024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ab5a76f85f29f2b/data analyst opleiding/projet 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{30C324EA-508E-4BCD-A217-91CDE8729BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3082D52E-8648-407C-98C6-1A1B0B88017C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{30C324EA-508E-4BCD-A217-91CDE8729BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56687847-2A51-46F1-94E6-065D33B43B26}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="14480" yWindow="120" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="🗺 Skill mapping" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -348,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -483,26 +483,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -523,9 +508,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -558,9 +540,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -569,7 +548,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -786,10 +765,10 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.6328125" customWidth="1"/>
     <col min="2" max="2" width="31" hidden="1" customWidth="1"/>
@@ -824,7 +803,7 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -837,7 +816,7 @@
       <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -847,10 +826,10 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -860,10 +839,12 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="5" t="s">
@@ -871,10 +852,12 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1">
       <c r="A7" s="5" t="s">
@@ -882,10 +865,12 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1">
       <c r="A8" s="5" t="s">
@@ -893,10 +878,12 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1">
       <c r="A9" s="5" t="s">
@@ -904,10 +891,12 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
@@ -915,10 +904,12 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="24" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -926,10 +917,12 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="24" customHeight="1">
       <c r="A12" s="5" t="s">
@@ -937,10 +930,12 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1">
       <c r="A13" s="5" t="s">
@@ -948,10 +943,12 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="24" customHeight="1">
       <c r="A14" s="5" t="s">
@@ -959,10 +956,12 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="30.75" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -970,10 +969,12 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="24.75" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -981,10 +982,12 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="29.25" customHeight="1">
       <c r="A17" s="5" t="s">
@@ -992,10 +995,12 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1">
       <c r="A18" s="5" t="s">
@@ -1003,10 +1008,12 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="24" customHeight="1">
       <c r="A19" s="5" t="s">
@@ -1014,10 +1021,12 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="26.25" customHeight="1">
       <c r="A20" s="5" t="s">
@@ -1025,10 +1034,12 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="43.5" customHeight="1">
       <c r="A21" s="5" t="s">
@@ -1036,10 +1047,12 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="24" customHeight="1">
       <c r="A22" s="5" t="s">
@@ -1047,21 +1060,25 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="32.25" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="30.75" customHeight="1">
       <c r="A24" s="5" t="s">
@@ -1069,10 +1086,12 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="24" customHeight="1">
       <c r="A25" s="5" t="s">
@@ -1080,10 +1099,12 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="36.75" customHeight="1">
       <c r="A26" s="5" t="s">
@@ -1091,10 +1112,12 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="30.75" customHeight="1">
       <c r="A27" s="5" t="s">
@@ -1102,10 +1125,12 @@
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="42.75" customHeight="1">
       <c r="A28" s="5" t="s">
@@ -1113,10 +1138,12 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="33.75" customHeight="1">
       <c r="A29" s="5" t="s">
@@ -1124,10 +1151,12 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="30.75" customHeight="1">
       <c r="A30" s="5" t="s">
@@ -1135,10 +1164,12 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="24" customHeight="1">
       <c r="A31" s="5" t="s">
@@ -1146,10 +1177,12 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="32.25" customHeight="1">
       <c r="A32" s="5" t="s">
@@ -1157,10 +1190,12 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="36" customHeight="1">
       <c r="A33" s="5" t="s">
@@ -1168,10 +1203,12 @@
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="37.5" customHeight="1">
       <c r="A34" s="5" t="s">
@@ -1179,10 +1216,12 @@
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="26.25" customHeight="1">
       <c r="A35" s="5" t="s">
@@ -1190,10 +1229,12 @@
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="28.5" customHeight="1">
       <c r="A36" s="5" t="s">
@@ -1201,10 +1242,12 @@
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="25.5" customHeight="1">
       <c r="A37" s="5" t="s">
@@ -1212,21 +1255,25 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="19"/>
+      <c r="E38" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="40" spans="1:5" ht="15.75" customHeight="1"/>
